--- a/predicciones_ods.xlsx
+++ b/predicciones_ods.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6</v>
+        <v>0.509</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.733</v>
+        <v>0.431</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6</v>
+        <v>0.572</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.723</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.533</v>
+        <v>0.51</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.467</v>
+        <v>0.535</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.867</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
@@ -606,14 +606,14 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.333</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ODS1_Pobreza</t>
+          <t>ODS4_Educacion</t>
         </is>
       </c>
     </row>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.533</v>
+        <v>0.74</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.533</v>
+        <v>0.626</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.733</v>
+        <v>0.607</v>
       </c>
       <c r="C13" t="n">
         <v>4</v>
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.667</v>
+        <v>0.484</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
@@ -696,14 +696,14 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ODS3_Salud</t>
+          <t>ODS4_Educacion</t>
         </is>
       </c>
     </row>
@@ -714,14 +714,14 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.467</v>
+        <v>0.724</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ODS3_Salud</t>
+          <t>ODS4_Educacion</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0.884</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
@@ -753,11 +753,11 @@
         <v>0.6</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ODS3_Salud</t>
+          <t>ODS4_Educacion</t>
         </is>
       </c>
     </row>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6</v>
+        <v>0.907</v>
       </c>
       <c r="C19" t="n">
         <v>4</v>
@@ -786,14 +786,14 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6</v>
+        <v>0.73</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ODS3_Salud</t>
+          <t>ODS1_Pobreza</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.914</v>
       </c>
       <c r="C21" t="n">
         <v>3</v>
@@ -822,14 +822,14 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4</v>
+        <v>0.741</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ODS3_Salud</t>
+          <t>ODS4_Educacion</t>
         </is>
       </c>
     </row>
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.667</v>
+        <v>0.794</v>
       </c>
       <c r="C23" t="n">
         <v>3</v>
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0.848</v>
       </c>
       <c r="C24" t="n">
         <v>3</v>
@@ -876,14 +876,14 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4</v>
+        <v>0.488</v>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ODS4_Educacion</t>
+          <t>ODS3_Salud</t>
         </is>
       </c>
     </row>
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.6</v>
+        <v>0.769</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -912,14 +912,14 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.533</v>
+        <v>0.573</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ODS4_Educacion</t>
+          <t>ODS1_Pobreza</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0.986</v>
       </c>
       <c r="C28" t="n">
         <v>3</v>
@@ -948,14 +948,14 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.4</v>
+        <v>0.396</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ODS3_Salud</t>
+          <t>ODS4_Educacion</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.6</v>
+        <v>0.438</v>
       </c>
       <c r="C30" t="n">
         <v>3</v>
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.533</v>
+        <v>0.884</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.867</v>
+        <v>0.674</v>
       </c>
       <c r="C32" t="n">
         <v>4</v>
@@ -1020,7 +1020,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0.982</v>
       </c>
       <c r="C33" t="n">
         <v>3</v>
@@ -1038,14 +1038,14 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.467</v>
+        <v>0.418</v>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>ODS3_Salud</t>
+          <t>ODS4_Educacion</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="C35" t="n">
         <v>3</v>
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="C36" t="n">
         <v>3</v>
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.467</v>
+        <v>0.436</v>
       </c>
       <c r="C37" t="n">
         <v>4</v>
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="C38" t="n">
         <v>3</v>
@@ -1128,14 +1128,14 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.8</v>
+        <v>0.64</v>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ODS4_Educacion</t>
+          <t>ODS3_Salud</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.867</v>
+        <v>0.841</v>
       </c>
       <c r="C40" t="n">
         <v>4</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.533</v>
+        <v>0.82</v>
       </c>
       <c r="C41" t="n">
         <v>4</v>
@@ -1182,14 +1182,14 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.4</v>
+        <v>0.577</v>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ODS3_Salud</t>
+          <t>ODS4_Educacion</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.733</v>
+        <v>0.881</v>
       </c>
       <c r="C43" t="n">
         <v>4</v>
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.667</v>
+        <v>0.634</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0.977</v>
       </c>
       <c r="C45" t="n">
         <v>3</v>
@@ -1254,14 +1254,14 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.467</v>
+        <v>0.392</v>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>ODS4_Educacion</t>
+          <t>ODS3_Salud</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.867</v>
+        <v>0.896</v>
       </c>
       <c r="C47" t="n">
         <v>3</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.916</v>
       </c>
       <c r="C48" t="n">
         <v>3</v>
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.4</v>
+        <v>0.454</v>
       </c>
       <c r="C49" t="n">
         <v>3</v>
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.467</v>
+        <v>0.461</v>
       </c>
       <c r="C50" t="n">
         <v>3</v>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.867</v>
+        <v>0.908</v>
       </c>
       <c r="C51" t="n">
         <v>4</v>
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C52" t="n">
         <v>3</v>
@@ -1380,14 +1380,14 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.6</v>
+        <v>0.418</v>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>ODS3_Salud</t>
+          <t>ODS4_Educacion</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="C54" t="n">
         <v>3</v>
@@ -1416,14 +1416,14 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.6</v>
+        <v>0.482</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ODS1_Pobreza</t>
+          <t>ODS4_Educacion</t>
         </is>
       </c>
     </row>
@@ -1434,7 +1434,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.6</v>
+        <v>0.869</v>
       </c>
       <c r="C56" t="n">
         <v>4</v>
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.667</v>
+        <v>0.679</v>
       </c>
       <c r="C57" t="n">
         <v>4</v>
@@ -1470,7 +1470,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.8</v>
+        <v>0.852</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
@@ -1488,7 +1488,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.467</v>
+        <v>0.428</v>
       </c>
       <c r="C59" t="n">
         <v>3</v>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.667</v>
+        <v>0.445</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
@@ -1524,7 +1524,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.467</v>
+        <v>0.869</v>
       </c>
       <c r="C61" t="n">
         <v>4</v>
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.6</v>
+        <v>0.596</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
@@ -1560,7 +1560,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="C63" t="n">
         <v>4</v>
@@ -1578,7 +1578,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.4</v>
+        <v>0.627</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -1614,14 +1614,14 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.4</v>
+        <v>0.517</v>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>ODS4_Educacion</t>
+          <t>ODS3_Salud</t>
         </is>
       </c>
     </row>
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.867</v>
+        <v>0.912</v>
       </c>
       <c r="C67" t="n">
         <v>3</v>
@@ -1650,14 +1650,14 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.667</v>
+        <v>0.406</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ODS1_Pobreza</t>
+          <t>ODS3_Salud</t>
         </is>
       </c>
     </row>
@@ -1668,14 +1668,14 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.4</v>
+        <v>0.868</v>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>ODS4_Educacion</t>
+          <t>ODS3_Salud</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.533</v>
+        <v>0.72</v>
       </c>
       <c r="C70" t="n">
         <v>4</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.6</v>
+        <v>0.462</v>
       </c>
       <c r="C71" t="n">
         <v>3</v>
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.8</v>
+        <v>0.741</v>
       </c>
       <c r="C72" t="n">
         <v>3</v>
@@ -1740,7 +1740,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="C73" t="n">
         <v>3</v>
@@ -1758,7 +1758,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.733</v>
+        <v>0.584</v>
       </c>
       <c r="C74" t="n">
         <v>4</v>
@@ -1776,7 +1776,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.667</v>
+        <v>0.752</v>
       </c>
       <c r="C75" t="n">
         <v>4</v>
@@ -1794,7 +1794,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.867</v>
+        <v>0.978</v>
       </c>
       <c r="C76" t="n">
         <v>3</v>
@@ -1812,14 +1812,14 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.4</v>
+        <v>0.706</v>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>ODS4_Educacion</t>
+          <t>ODS1_Pobreza</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.667</v>
+        <v>0.762</v>
       </c>
       <c r="C78" t="n">
         <v>3</v>
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>0.926</v>
       </c>
       <c r="C79" t="n">
         <v>4</v>
@@ -1866,7 +1866,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.8</v>
+        <v>0.355</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.533</v>
+        <v>0.526</v>
       </c>
       <c r="C81" t="n">
         <v>3</v>
@@ -1902,14 +1902,14 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.4</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>ODS4_Educacion</t>
+          <t>ODS1_Pobreza</t>
         </is>
       </c>
     </row>
@@ -1920,14 +1920,14 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.467</v>
+        <v>0.672</v>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>ODS3_Salud</t>
+          <t>ODS4_Educacion</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.467</v>
+        <v>0.46</v>
       </c>
       <c r="C84" t="n">
         <v>3</v>
@@ -1956,14 +1956,14 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.6</v>
+        <v>0.496</v>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ODS4_Educacion</t>
+          <t>ODS3_Salud</t>
         </is>
       </c>
     </row>
@@ -1974,7 +1974,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.733</v>
+        <v>0.877</v>
       </c>
       <c r="C86" t="n">
         <v>4</v>
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0.788</v>
       </c>
       <c r="C87" t="n">
         <v>3</v>
@@ -2010,7 +2010,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.6</v>
+        <v>0.574</v>
       </c>
       <c r="C88" t="n">
         <v>4</v>
@@ -2028,7 +2028,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0.968</v>
       </c>
       <c r="C89" t="n">
         <v>3</v>
@@ -2046,14 +2046,14 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.533</v>
+        <v>0.735</v>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>ODS3_Salud</t>
+          <t>ODS4_Educacion</t>
         </is>
       </c>
     </row>
@@ -2064,14 +2064,14 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>ODS3_Salud</t>
+          <t>ODS4_Educacion</t>
         </is>
       </c>
     </row>
@@ -2082,14 +2082,14 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.467</v>
+        <v>0.406</v>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>ODS4_Educacion</t>
+          <t>ODS3_Salud</t>
         </is>
       </c>
     </row>
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.6</v>
+        <v>0.898</v>
       </c>
       <c r="C93" t="n">
         <v>4</v>
@@ -2118,7 +2118,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.533</v>
+        <v>0.539</v>
       </c>
       <c r="C94" t="n">
         <v>4</v>
@@ -2136,7 +2136,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.4</v>
+        <v>0.389</v>
       </c>
       <c r="C95" t="n">
         <v>3</v>
@@ -2154,7 +2154,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.467</v>
+        <v>0.459</v>
       </c>
       <c r="C96" t="n">
         <v>3</v>
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.533</v>
+        <v>0.87</v>
       </c>
       <c r="C97" t="n">
         <v>4</v>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.467</v>
+        <v>0.591</v>
       </c>
       <c r="C98" t="n">
         <v>4</v>
@@ -2208,7 +2208,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.867</v>
+        <v>0.983</v>
       </c>
       <c r="C99" t="n">
         <v>3</v>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.667</v>
+        <v>0.862</v>
       </c>
       <c r="C100" t="n">
         <v>4</v>
@@ -2244,14 +2244,14 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.467</v>
+        <v>0.457</v>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ODS4_Educacion</t>
+          <t>ODS3_Salud</t>
         </is>
       </c>
     </row>
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0.828</v>
       </c>
       <c r="C102" t="n">
         <v>4</v>
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="C103" t="n">
         <v>4</v>
@@ -2298,7 +2298,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.533</v>
+        <v>0.974</v>
       </c>
       <c r="C104" t="n">
         <v>3</v>
@@ -2316,14 +2316,14 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.533</v>
+        <v>0.418</v>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>ODS1_Pobreza</t>
+          <t>ODS3_Salud</t>
         </is>
       </c>
     </row>
@@ -2334,14 +2334,14 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.533</v>
+        <v>0.783</v>
       </c>
       <c r="C106" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>ODS4_Educacion</t>
+          <t>ODS3_Salud</t>
         </is>
       </c>
     </row>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.867</v>
+        <v>0.666</v>
       </c>
       <c r="C107" t="n">
         <v>1</v>
@@ -2370,7 +2370,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.733</v>
+        <v>0.841</v>
       </c>
       <c r="C108" t="n">
         <v>3</v>
@@ -2388,7 +2388,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.467</v>
+        <v>0.414</v>
       </c>
       <c r="C109" t="n">
         <v>3</v>
@@ -2406,7 +2406,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0.946</v>
       </c>
       <c r="C110" t="n">
         <v>3</v>
@@ -2424,14 +2424,14 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.533</v>
+        <v>0.599</v>
       </c>
       <c r="C111" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>ODS3_Salud</t>
+          <t>ODS1_Pobreza</t>
         </is>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="C112" t="n">
         <v>3</v>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.6</v>
+        <v>0.537</v>
       </c>
       <c r="C113" t="n">
         <v>3</v>
@@ -2478,7 +2478,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.6</v>
+        <v>0.673</v>
       </c>
       <c r="C114" t="n">
         <v>3</v>
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.986</v>
       </c>
       <c r="C115" t="n">
         <v>3</v>
@@ -2514,14 +2514,14 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.733</v>
+        <v>0.523</v>
       </c>
       <c r="C116" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>ODS4_Educacion</t>
+          <t>ODS3_Salud</t>
         </is>
       </c>
     </row>
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0.881</v>
       </c>
       <c r="C117" t="n">
         <v>3</v>
@@ -2550,7 +2550,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0.974</v>
       </c>
       <c r="C118" t="n">
         <v>3</v>
@@ -2568,14 +2568,14 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.6</v>
+        <v>0.621</v>
       </c>
       <c r="C119" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>ODS3_Salud</t>
+          <t>ODS1_Pobreza</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2586,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.6</v>
+        <v>0.853</v>
       </c>
       <c r="C120" t="n">
         <v>3</v>
@@ -2604,7 +2604,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.6</v>
+        <v>0.511</v>
       </c>
       <c r="C121" t="n">
         <v>3</v>
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.946</v>
       </c>
       <c r="C122" t="n">
         <v>3</v>
@@ -2640,7 +2640,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.4</v>
+        <v>0.368</v>
       </c>
       <c r="C123" t="n">
         <v>3</v>
@@ -2658,7 +2658,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.533</v>
+        <v>0.742</v>
       </c>
       <c r="C124" t="n">
         <v>4</v>
@@ -2676,7 +2676,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="C125" t="n">
         <v>3</v>
@@ -2694,14 +2694,14 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.533</v>
+        <v>0.585</v>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>ODS1_Pobreza</t>
+          <t>ODS3_Salud</t>
         </is>
       </c>
     </row>
@@ -2712,14 +2712,14 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.6</v>
+        <v>0.463</v>
       </c>
       <c r="C127" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>ODS3_Salud</t>
+          <t>ODS1_Pobreza</t>
         </is>
       </c>
     </row>
@@ -2730,7 +2730,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.467</v>
+        <v>0.705</v>
       </c>
       <c r="C128" t="n">
         <v>1</v>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.533</v>
+        <v>0.502</v>
       </c>
       <c r="C129" t="n">
         <v>4</v>
@@ -2766,7 +2766,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.6</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="C130" t="n">
         <v>3</v>
@@ -2784,7 +2784,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="C131" t="n">
         <v>3</v>
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.733</v>
+        <v>0.927</v>
       </c>
       <c r="C132" t="n">
         <v>1</v>
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0.922</v>
       </c>
       <c r="C133" t="n">
         <v>3</v>
@@ -2838,14 +2838,14 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.4</v>
+        <v>0.603</v>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>ODS1_Pobreza</t>
+          <t>ODS4_Educacion</t>
         </is>
       </c>
     </row>
@@ -2856,14 +2856,14 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.467</v>
+        <v>0.723</v>
       </c>
       <c r="C135" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>ODS4_Educacion</t>
+          <t>ODS1_Pobreza</t>
         </is>
       </c>
     </row>
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.6</v>
+        <v>0.712</v>
       </c>
       <c r="C136" t="n">
         <v>1</v>
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.667</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="C137" t="n">
         <v>1</v>
@@ -2910,7 +2910,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.6</v>
+        <v>0.456</v>
       </c>
       <c r="C138" t="n">
         <v>1</v>
@@ -2928,7 +2928,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.4</v>
+        <v>0.729</v>
       </c>
       <c r="C139" t="n">
         <v>1</v>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.6</v>
+        <v>0.874</v>
       </c>
       <c r="C140" t="n">
         <v>1</v>
@@ -2964,7 +2964,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.4</v>
+        <v>0.473</v>
       </c>
       <c r="C141" t="n">
         <v>1</v>
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.467</v>
+        <v>0.413</v>
       </c>
       <c r="C142" t="n">
         <v>4</v>
@@ -3000,7 +3000,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.667</v>
+        <v>0.85</v>
       </c>
       <c r="C143" t="n">
         <v>1</v>
@@ -3018,7 +3018,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.733</v>
+        <v>0.909</v>
       </c>
       <c r="C144" t="n">
         <v>1</v>
@@ -3036,14 +3036,14 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.533</v>
+        <v>0.463</v>
       </c>
       <c r="C145" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>ODS3_Salud</t>
+          <t>ODS4_Educacion</t>
         </is>
       </c>
     </row>
@@ -3054,7 +3054,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.467</v>
+        <v>0.407</v>
       </c>
       <c r="C146" t="n">
         <v>4</v>
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.467</v>
+        <v>0.415</v>
       </c>
       <c r="C147" t="n">
         <v>4</v>
@@ -3090,7 +3090,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.667</v>
+        <v>0.552</v>
       </c>
       <c r="C148" t="n">
         <v>3</v>
@@ -3108,14 +3108,14 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.533</v>
+        <v>0.428</v>
       </c>
       <c r="C149" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>ODS4_Educacion</t>
+          <t>ODS1_Pobreza</t>
         </is>
       </c>
     </row>
@@ -3126,14 +3126,14 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.467</v>
+        <v>0.556</v>
       </c>
       <c r="C150" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>ODS3_Salud</t>
+          <t>ODS1_Pobreza</t>
         </is>
       </c>
     </row>
@@ -3144,14 +3144,14 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="C151" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>ODS4_Educacion</t>
+          <t>ODS3_Salud</t>
         </is>
       </c>
     </row>
@@ -3162,14 +3162,14 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.467</v>
+        <v>0.72</v>
       </c>
       <c r="C152" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>ODS4_Educacion</t>
+          <t>ODS1_Pobreza</t>
         </is>
       </c>
     </row>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.8</v>
+        <v>0.456</v>
       </c>
       <c r="C153" t="n">
         <v>1</v>
